--- a/doc/CH.xlsx
+++ b/doc/CH.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="253">
   <si>
     <t>演员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,579 +57,979 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 人妻 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 ol 后入 女上位 中出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chocoletmilkk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国大夫妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妻 丝袜 后入 中出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch4.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ck! 专找老阿姨03-22中年美妇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妻 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch5.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>性感学妹深夜露脸黑白丝情趣跟大哥激情啪啪 口交大鸡巴多体位爆草抽插</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 女子校生 中出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch6.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极品身材网红美女《樱桃妹妹》剧情新作 樱桃妹妹用双足和上下两张嘴巴叫爸爸起床</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 女上位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch7.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>《小七软同学》剧情实录 女仆装美乳女友挑逗玩游戏男友求操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女子校生 后入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch8.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业白领人娇妻口活不错女上位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 ol 人妻 女上位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch9.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中年大叔后山小树林嫖野鸡穿着肉丝颜值还可以的年轻村姑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妻 丝袜 后入 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch10.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 人妻 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch11.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圆润美臀大长腿文静小姐姐连体网袜激情啪啪 边操边流水搞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女上位 中出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch12.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皮肤白皙人妻御姐《爱琳》换装制服诱惑 扛腿抽插粉穴 白嫩美乳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妻 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch13.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑丝性感御姐老骚啦无套干到高潮 内射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 人妻 中出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch14.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夜袭女宿舍劲速狂插偷腥人妻 蜂腰D奶蜜桃巨臀 无套高速输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 人妻 后入 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch15.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离异单亲美熟女的性福生活 跟情人颠鸾倒凤 尽享鱼水之欢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 人妻 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch16.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极品淫妻少妇《爱丽丝》口爆毒龙啪啪白浆私拍流出 各种姿势</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妻 中出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch17.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由浅入深成功把男顾客挑逗的直接玩双飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约炮 人妻 女上位 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch18.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小哥哥做了太久都没有射美女只能摘下套子用嘴给他口出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 约炮 戴套 颜射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch19.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91大神最新流出酒店约炮穿着JK裙的可爱小女友 还是一个无毛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">约炮 女子校生 丝袜 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch20.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>透明丝袜 稍稍掀起做爱 高潮发骚 一波猛操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">丝袜 人妻 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch21.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哺乳期爆乳人妻蜜丝儿啪啪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妻 丝袜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch22.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情感主博李寻欢深夜极品颜值清纯萝莉妹子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch23.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>172美腿黑丝温柔御姐狂干娇喘摄人心魄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约炮 丝袜 后入 女上位 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约炮 萝莉 丝袜 女上位 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch24.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YOUPORN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91上海戏剧学院大四校花冉冉学姐180大长腿沦为肉欲玩物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 女子校生 丝袜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch25.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91大神D先生后入爆操极品白丝窒息女仆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝莉 丝袜 中出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch26.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淫荡前女友-范可可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>范可可</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 戴套 后入 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch27.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妻子的野心下集林凤娇-黄雪纯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄雪纯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妻 戴套 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch28.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妻子淫行计划1-余丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>余丽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妻 后入 戴套 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch29.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商务伴游-许晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许晴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘书ol 戴套 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch30.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬小桃酱-全新挑战做爱时打电话给别人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小桃酱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝莉 女上位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch31.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门事件-黑龙江科技大学女主身材一流男主3分钟秒射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女子校生 戴套 后入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch32.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫宝宝-楼道电梯翘美臀后入内射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妻 后入 中出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch33.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大神汤三哥复出广州大战高颜值F杯极品淘宝模特看着广州塔射满她</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约炮 女上位 戴套 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch34.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淘宝模特私拍外衣下的色情交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约炮 丝袜 戴套 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch35.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反差婊之-当你老婆是个卖茶妞儿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约炮 人妻 丝袜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch36.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小余-剧情演出被尾强奸的汉服少女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小余</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝莉 丝袜 中出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch37.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安小兮-女神赚零花钱的方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安小兮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约炮 丝袜 女上位 颜射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch38.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经典古装三级剪辑-金瓶梅之潘金莲偷情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女上位 户外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch39.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步宾探花TP约了个大奶风骚极品外围差点被发现操起来是真的爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约炮 女上位 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch40.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>还在读大三的学妹萱萱初次和我约炮制服丝袜诱惑多啪啪啪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女子校生 丝袜 空姐 后入 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch41.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面有根棒棒糖-白领女友喜欢穿黑色厚裤袜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 ol 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch42.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91小语Cosplay斗罗大陆小舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 人妻 后入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch43.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿帽杀手-冯雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冯雪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妻 戴套 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch44.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北上广不相信眼泪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ol 丝袜 戴套 外射 颜射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch45.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 秘书ol 车震 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch46.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬泡芙小姐女神勾搭推销帅哥做爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">丝袜 约炮 女上位 戴套 后入 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch47.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00后大学生下面有根棒棒糖黑丝淫语激情性爱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女子校生 丝袜 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch48.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网曝门事件最近火爆高颜值美女为人师婊小学教室李雪梨与男友不雅视图流出第二期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女教师 丝袜 女上位 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch49.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重磅福利百度云泄密高颜值气质美女小学教师李雪梨与男友啪啪不雅视图流出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李雪梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李雪梨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女教师 丝袜 女上位 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch50.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91骚货果儿精彩自拍作品集各种姿势啪啪啪天天就是操逼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女子校生 约炮 戴套 后入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch51.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超美高颜值周末接上大学干女儿回家好好疼爱一番</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女子校生 女上位 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch52.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微博女神完具酱-纵情的黑丝OL秘书在办公室的诱惑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 秘书ol 女上位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch53.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约炮 后入 外射 颜射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch54.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91小哥TP酒店约炮大二兼职学妹从床上操到沙发各种体位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约炮 丝袜 女子校生 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch55.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公子哥驱车迎接刚下航的黑丝性感美腿大奶空姐前凸后翘身材太棒了国语对白</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空姐 丝袜 外射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch56.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在桑拿会所点到一个极品技师穿上各种制服装让人沉醉的技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约炮 后入 丝袜 戴套 颜射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch57.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 人妻 约炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch58.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小骚逼极品女神最后还是被我拿下穿上情趣浴衣让我的肉棒更硬了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约炮 女上位 戴套 颜射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch59.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91长岛冰茶合集身材完美呻吟勾魂啊 这种女人要人老命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人妻 后入 女上位 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch60.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板约高颜值制服黑丝美女秘书肤白貌美好身材一看到就硬了两条大长腿夹的销魂啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 秘书ol 约炮 后入 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch61.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18岁女友醉酒瘫软在床被男友迷操暴插白丝肉丝情趣内衣迷迷糊糊的呻吟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 萝莉 女子校生 戴套 后入 女上位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch62.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小情趣极品无毛逼穿开档黑丝找我约操一线天操着就是爽妹子不停叫着太深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 人妻 ol 约炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch63.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丝袜 女子校生 萝莉 戴套 后入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch64.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>情感主播李寻欢TP再约极品大奶粉穴萌妹子还是那么有初恋的感觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">约炮 女子校生 戴套 女上位 后入 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch65.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推特萌妹抖音妹双马尾白丝lo娘啪啪啪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝莉 丝袜 戴套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch66.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高颜值清纯邻家妹妹周末在屋里无聊发骚自慰给狗狗看还给自慰棒乳交想当那根棒爽死哦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>萝莉 女子校生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首页-20部推荐作品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch1.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch2.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch3.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch10.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch25.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch27.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch33.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch36.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch41.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch45.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch47.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch48.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch50.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch53.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch56.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch57.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch55.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch61.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch63.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ch64.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://besa-lcx.github.io/LAV_picture_ch/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>ck! 会所女技师为少年做全套</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝袜 人妻 戴套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch2.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ck! 酒店公关经理-chocoletmilkk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丝袜 ol 后入 女上位 中出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>chocoletmilkk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch3.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ck! 性感紧身空姐服-国大夫妇</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国大夫妇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人妻 丝袜 后入 中出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch4.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ck! 专找老阿姨03-22中年美妇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人妻 戴套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch5.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>性感学妹深夜露脸黑白丝情趣跟大哥激情啪啪 口交大鸡巴多体位爆草抽插</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝袜 女子校生 中出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch6.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极品身材网红美女《樱桃妹妹》剧情新作 樱桃妹妹用双足和上下两张嘴巴叫爸爸起床</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝袜 女上位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch7.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>《小七软同学》剧情实录 女仆装美乳女友挑逗玩游戏男友求操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女子校生 后入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch8.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业白领人娇妻口活不错女上位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝袜 ol 人妻 女上位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch9.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中年大叔后山小树林嫖野鸡穿着肉丝颜值还可以的年轻村姑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人妻 丝袜 后入 戴套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch10.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>国产骚货《下面有跟棒棒糖》黑丝高跟性感御姐极致挑逗 按在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丝袜 人妻 戴套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch11.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圆润美臀大长腿文静小姐姐连体网袜激情啪啪 边操边流水搞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女上位 中出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch12.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>皮肤白皙人妻御姐《爱琳》换装制服诱惑 扛腿抽插粉穴 白嫩美乳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人妻 外射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch13.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑丝性感御姐老骚啦无套干到高潮 内射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝袜 人妻 中出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch14.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>夜袭女宿舍劲速狂插偷腥人妻 蜂腰D奶蜜桃巨臀 无套高速输</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝袜 人妻 后入 戴套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch15.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离异单亲美熟女的性福生活 跟情人颠鸾倒凤 尽享鱼水之欢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝袜 人妻 戴套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch16.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极品淫妻少妇《爱丽丝》口爆毒龙啪啪白浆私拍流出 各种姿势</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人妻 中出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch17.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>由浅入深成功把男顾客挑逗的直接玩双飞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约炮 人妻 女上位 戴套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch18.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小哥哥做了太久都没有射美女只能摘下套子用嘴给他口出来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝袜 约炮 戴套 颜射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch19.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91大神最新流出酒店约炮穿着JK裙的可爱小女友 还是一个无毛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">约炮 女子校生 丝袜 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch20.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>透明丝袜 稍稍掀起做爱 高潮发骚 一波猛操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">丝袜 人妻 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch21.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>哺乳期爆乳人妻蜜丝儿啪啪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人妻 丝袜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch22.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>情感主博李寻欢深夜极品颜值清纯萝莉妹子</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch23.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>172美腿黑丝温柔御姐狂干娇喘摄人心魄</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约炮 丝袜 后入 女上位 戴套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约炮 萝莉 丝袜 女上位 戴套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch24.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YOUPORN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91上海戏剧学院大四校花冉冉学姐180大长腿沦为肉欲玩物</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 女子校生 丝袜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch25.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91大神D先生后入爆操极品白丝窒息女仆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝莉 丝袜 中出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch26.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淫荡前女友-范可可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>范可可</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝袜 戴套 后入 外射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch27.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妻子的野心下集林凤娇-黄雪纯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄雪纯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人妻 戴套 外射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch28.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>妻子淫行计划1-余丽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余丽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人妻 后入 戴套 外射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch29.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商务伴游-许晴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>许晴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秘书ol 戴套 外射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch30.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>福利姬小桃酱-全新挑战做爱时打电话给别人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小桃酱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝莉 女上位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch31.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门事件-黑龙江科技大学女主身材一流男主3分钟秒射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女子校生 戴套 后入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch32.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猫宝宝-楼道电梯翘美臀后入内射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人妻 后入 中出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch33.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大神汤三哥复出广州大战高颜值F杯极品淘宝模特看着广州塔射满她</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约炮 女上位 戴套 外射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch34.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝模特私拍外衣下的色情交易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约炮 丝袜 戴套 外射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch35.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反差婊之-当你老婆是个卖茶妞儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约炮 人妻 丝袜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch36.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小余-剧情演出被尾强奸的汉服少女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小余</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>萝莉 丝袜 中出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch37.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安小兮-女神赚零花钱的方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安小兮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约炮 丝袜 女上位 颜射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch38.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经典古装三级剪辑-金瓶梅之潘金莲偷情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女上位 户外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch39.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>步宾探花TP约了个大奶风骚极品外围差点被发现操起来是真的爽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>约炮 女上位 戴套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch40.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>还在读大三的学妹萱萱初次和我约炮制服丝袜诱惑多啪啪啪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女子校生 丝袜 空姐 后入 戴套</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch41.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下面有根棒棒糖-白领女友喜欢穿黑色厚裤袜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝袜 ol 外射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ch42.png</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91小语Cosplay斗罗大陆小舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>丝袜 人妻 后入</t>
+    <t>接小骚逼秘书下班实在忍不住在车上干了起来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可爱小女仆为了5星好评让我爆肏-白丝服务主人非常到位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真刺激边讲着电话边给老公戴绿帽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利姬抖音妹-JK黑丝爆操大屁股粉穴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +1037,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,8 +1076,23 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -690,8 +1105,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -768,11 +1189,260 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="2"/>
+      </right>
+      <top style="thick">
+        <color theme="2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color theme="2"/>
+      </right>
+      <top style="thick">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00CC99"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00CC99"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00CC99"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00CC99"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF00CC99"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color theme="2"/>
+      </right>
+      <top style="thick">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00CC99"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00CC99"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00CC99"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00CC99"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF00CC99"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFD3556"/>
+      </left>
+      <right style="thick">
+        <color theme="2"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFD3556"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFD3556"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color theme="2"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFD3556"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFD3556"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00CC99"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFD3556"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFD3556"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00CC99"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00CC99"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFD3556"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFD3556"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFD3556"/>
+      </left>
+      <right style="thick">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFD3556"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="2"/>
+      </left>
+      <right style="thick">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFD3556"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF00CC99"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFD3556"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF00CC99"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF00CC99"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFD3556"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -808,18 +1478,118 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
       <color rgb="FFFD3556"/>
+      <color rgb="FF00CC99"/>
       <color rgb="FFFF056A"/>
       <color rgb="FFFF5050"/>
-      <color rgb="FF00CC99"/>
       <color rgb="FFCC0099"/>
     </mruColors>
   </colors>
@@ -1099,8 +1869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" thickTop="1" thickBottom="1" x14ac:dyDescent="0.25"/>
@@ -1114,7 +1884,7 @@
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="18" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -1136,115 +1906,125 @@
       <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="H1" s="17"/>
+    </row>
+    <row r="2" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="33">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="F2" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="G2" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="H2" s="36"/>
+    </row>
+    <row r="3" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33">
+        <v>2</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G3" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="36"/>
+    </row>
+    <row r="4" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="36"/>
+    </row>
+    <row r="5" spans="1:8" s="3" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8" t="s">
+      <c r="F5" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" s="2"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G6" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2"/>
     </row>
@@ -1253,20 +2033,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G7" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H7" s="2"/>
     </row>
@@ -1275,20 +2057,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G8" s="9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2"/>
     </row>
@@ -1297,108 +2081,118 @@
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" s="18" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="19">
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="9" t="s">
+      <c r="F10" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>9</v>
-      </c>
-      <c r="B10" s="7" t="s">
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D11" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="34" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="9" t="s">
+      <c r="H11" s="36"/>
+    </row>
+    <row r="12" spans="1:8" s="3" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>11</v>
+      </c>
+      <c r="B12" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="F12" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G12" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="H12" s="2"/>
+      <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G13" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="H13" s="2"/>
     </row>
@@ -1407,20 +2201,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G14" s="9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="H14" s="2"/>
     </row>
@@ -1429,20 +2225,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G15" s="9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="H15" s="2"/>
     </row>
@@ -1451,20 +2249,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="6"/>
+        <v>51</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G16" s="9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H16" s="2"/>
     </row>
@@ -1473,20 +2273,22 @@
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G17" s="9" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H17" s="2"/>
     </row>
@@ -1495,20 +2297,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="6"/>
+        <v>57</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G18" s="9" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -1517,20 +2321,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F19" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G19" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="H19" s="2"/>
     </row>
@@ -1539,20 +2345,22 @@
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F20" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G20" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H20" s="2"/>
     </row>
@@ -1561,20 +2369,22 @@
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="6"/>
+        <v>66</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G21" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="H21" s="2"/>
     </row>
@@ -1583,20 +2393,22 @@
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F22" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G22" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="H22" s="2"/>
     </row>
@@ -1605,20 +2417,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>76</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="H23" s="2"/>
     </row>
@@ -1627,152 +2441,166 @@
         <v>23</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" s="18" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="19">
+        <v>24</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G25" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="33">
         <v>25</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="B26" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="6"/>
-      <c r="G24" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="7" t="s">
+      <c r="D26" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="7" t="s">
+      <c r="F26" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G26" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="6"/>
-      <c r="G25" s="9" t="s">
+      <c r="H26" s="36"/>
+    </row>
+    <row r="27" spans="1:8" s="26" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="23">
+        <v>26</v>
+      </c>
+      <c r="B27" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="7" t="s">
+      <c r="C27" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="E27" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="9" t="s">
+      <c r="F27" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="7" t="s">
+      <c r="H27" s="25"/>
+    </row>
+    <row r="28" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="33">
+        <v>27</v>
+      </c>
+      <c r="B28" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="C28" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D28" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E28" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="9" t="s">
+      <c r="F28" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G28" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="7" t="s">
+      <c r="H28" s="36"/>
+    </row>
+    <row r="29" spans="1:8" s="3" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="15">
+        <v>28</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" s="7" t="s">
+      <c r="C29" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E28" s="7" t="s">
+      <c r="E29" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="9" t="s">
+      <c r="F29" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G29" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="2"/>
+      <c r="H29" s="28"/>
     </row>
     <row r="30" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="F30" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G30" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="H30" s="2"/>
     </row>
@@ -1781,20 +2609,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="F31" s="6"/>
+        <v>101</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G31" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -1803,174 +2633,190 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" s="18" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>32</v>
+      </c>
+      <c r="B33" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="C32" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" s="6" t="s">
+      <c r="C33" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F32" s="6"/>
-      <c r="G32" s="8" t="s">
+      <c r="F33" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G33" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
+      <c r="H33" s="17"/>
+    </row>
+    <row r="34" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="33">
+        <v>33</v>
+      </c>
+      <c r="B34" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C33" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="6" t="s">
+      <c r="C34" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="F34" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="36"/>
+    </row>
+    <row r="35" spans="1:8" s="3" customFormat="1" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="15">
+        <v>34</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D35" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="6"/>
-      <c r="G33" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="E35" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="6"/>
-      <c r="G34" s="8" t="s">
+      <c r="H35" s="28"/>
+    </row>
+    <row r="36" spans="1:8" s="18" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>35</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="1:8" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
+      <c r="C36" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D36" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="E36" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="6"/>
-      <c r="G35" s="8" t="s">
+      <c r="F36" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G36" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
+      <c r="H36" s="17"/>
+    </row>
+    <row r="37" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="33">
+        <v>36</v>
+      </c>
+      <c r="B37" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="C36" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D36" s="6" t="s">
+      <c r="C37" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D37" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="E36" s="6" t="s">
+      <c r="E37" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="6"/>
-      <c r="G36" s="8" t="s">
+      <c r="F37" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G37" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
+      <c r="H37" s="36"/>
+    </row>
+    <row r="38" spans="1:8" s="3" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="15">
+        <v>37</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D37" s="6" t="s">
+      <c r="C38" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E37" s="6" t="s">
+      <c r="E38" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="F37" s="6"/>
-      <c r="G37" s="8" t="s">
+      <c r="F38" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="H37" s="2"/>
-    </row>
-    <row r="38" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="F38" s="6"/>
-      <c r="G38" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H38" s="2"/>
+      <c r="H38" s="28"/>
     </row>
     <row r="39" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E39" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="F39" s="6"/>
+        <v>133</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>244</v>
+      </c>
       <c r="G39" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H39" s="2"/>
     </row>
@@ -1979,327 +2825,671 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" s="18" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19">
+        <v>40</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E40" s="6" t="s">
+      <c r="E41" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="F40" s="6"/>
-      <c r="G40" s="8" t="s">
+      <c r="F41" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G41" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="6">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
+      <c r="H41" s="17"/>
+    </row>
+    <row r="42" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="33">
+        <v>41</v>
+      </c>
+      <c r="B42" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D41" s="6" t="s">
+      <c r="C42" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="E42" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="E41" s="6" t="s">
+      <c r="F42" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G42" s="35" t="s">
         <v>144</v>
       </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="8" t="s">
+      <c r="H42" s="36"/>
+    </row>
+    <row r="43" spans="1:8" s="3" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="15">
+        <v>42</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
+      <c r="C43" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E43" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="C42" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="F42" s="6"/>
-      <c r="G42" s="8" t="s">
+      <c r="F43" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G43" s="27" t="s">
         <v>148</v>
       </c>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
+      <c r="H43" s="28"/>
+    </row>
+    <row r="44" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D43" s="6" t="s">
+      <c r="C44" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D44" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="E43" s="6" t="s">
+      <c r="E44" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="F43" s="6"/>
-      <c r="G43" s="8" t="s">
+      <c r="F44" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="8"/>
       <c r="H44" s="2"/>
     </row>
-    <row r="45" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="6"/>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="2"/>
-    </row>
-    <row r="56" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="6"/>
-      <c r="B56" s="6"/>
-      <c r="C56" s="6"/>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="2"/>
-    </row>
-    <row r="57" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="6"/>
-      <c r="B57" s="6"/>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="2"/>
-    </row>
-    <row r="58" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="6"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="2"/>
-    </row>
-    <row r="59" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="6"/>
-      <c r="B59" s="6"/>
-      <c r="C59" s="6"/>
-      <c r="D59" s="6"/>
-      <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="2"/>
+    <row r="45" spans="1:8" s="18" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="19">
+        <v>44</v>
+      </c>
+      <c r="B45" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="H45" s="17"/>
+    </row>
+    <row r="46" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="33">
+        <v>45</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="C46" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="E46" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="F46" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="H46" s="36"/>
+    </row>
+    <row r="47" spans="1:8" s="26" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23">
+        <v>46</v>
+      </c>
+      <c r="B47" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E47" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G47" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="H47" s="25"/>
+    </row>
+    <row r="48" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="33">
+        <v>47</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="F48" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="H48" s="36"/>
+    </row>
+    <row r="49" spans="1:8" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="33">
+        <v>48</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="E49" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="F49" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49" s="36"/>
+    </row>
+    <row r="50" spans="1:8" s="26" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23">
+        <v>49</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="C50" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D50" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E50" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G50" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="H50" s="25"/>
+    </row>
+    <row r="51" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="33">
+        <v>50</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C51" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E51" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="H51" s="36"/>
+    </row>
+    <row r="52" spans="1:8" s="3" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="15">
+        <v>51</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G52" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="H52" s="28"/>
+    </row>
+    <row r="53" spans="1:8" s="18" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="19">
+        <v>52</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="E53" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="F53" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G53" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="H53" s="17"/>
+    </row>
+    <row r="54" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="33">
+        <v>53</v>
+      </c>
+      <c r="B54" s="34" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>176</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G54" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H54" s="36"/>
+    </row>
+    <row r="55" spans="1:8" s="26" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23">
+        <v>54</v>
+      </c>
+      <c r="B55" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C55" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="23" t="s">
+        <v>155</v>
+      </c>
+      <c r="E55" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G55" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="H55" s="25"/>
+    </row>
+    <row r="56" spans="1:8" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="33">
+        <v>55</v>
+      </c>
+      <c r="B56" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G56" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="H56" s="36"/>
+    </row>
+    <row r="57" spans="1:8" s="42" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="38">
+        <v>56</v>
+      </c>
+      <c r="B57" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C57" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="39" t="s">
+        <v>244</v>
+      </c>
+      <c r="G57" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="H57" s="41"/>
+    </row>
+    <row r="58" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="33">
+        <v>57</v>
+      </c>
+      <c r="B58" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="C58" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D58" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="34" t="s">
+        <v>251</v>
+      </c>
+      <c r="F58" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="H58" s="36"/>
+    </row>
+    <row r="59" spans="1:8" s="3" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="15">
+        <v>58</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G59" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="H59" s="28"/>
     </row>
     <row r="60" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="6"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="8"/>
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G60" s="8" t="s">
+        <v>202</v>
+      </c>
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="6"/>
-      <c r="B61" s="6"/>
-      <c r="C61" s="6"/>
-      <c r="D61" s="6"/>
-      <c r="E61" s="6"/>
-      <c r="F61" s="6"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="2"/>
-    </row>
-    <row r="62" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="6"/>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-      <c r="F62" s="6"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="2"/>
-    </row>
-    <row r="63" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="6"/>
-      <c r="B63" s="6"/>
-      <c r="C63" s="6"/>
-      <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="2"/>
-    </row>
-    <row r="64" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="6"/>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
-      <c r="E64" s="6"/>
-      <c r="F64" s="6"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="2"/>
-    </row>
-    <row r="65" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="6"/>
-      <c r="B65" s="6"/>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="2"/>
-    </row>
-    <row r="66" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="6"/>
-      <c r="B66" s="6"/>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="2"/>
-    </row>
-    <row r="67" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="6"/>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
-      <c r="E67" s="6"/>
-      <c r="F67" s="6"/>
-      <c r="G67" s="8"/>
+    <row r="61" spans="1:8" s="18" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="19">
+        <v>60</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E61" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="F61" s="19" t="s">
+        <v>244</v>
+      </c>
+      <c r="G61" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="H61" s="17"/>
+    </row>
+    <row r="62" spans="1:8" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="33">
+        <v>61</v>
+      </c>
+      <c r="B62" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D62" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E62" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="F62" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G62" s="35" t="s">
+        <v>208</v>
+      </c>
+      <c r="H62" s="36"/>
+    </row>
+    <row r="63" spans="1:8" s="26" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="23">
+        <v>62</v>
+      </c>
+      <c r="B63" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C63" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D63" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="F63" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="1:8" s="37" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="33">
+        <v>63</v>
+      </c>
+      <c r="B64" s="34" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="F64" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G64" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="H64" s="36"/>
+    </row>
+    <row r="65" spans="1:8" s="37" customFormat="1" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="33">
+        <v>64</v>
+      </c>
+      <c r="B65" s="34" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E65" s="34" t="s">
+        <v>215</v>
+      </c>
+      <c r="F65" s="34" t="s">
+        <v>244</v>
+      </c>
+      <c r="G65" s="35" t="s">
+        <v>216</v>
+      </c>
+      <c r="H65" s="36"/>
+    </row>
+    <row r="66" spans="1:8" s="3" customFormat="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="15">
+        <v>65</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="G66" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="H66" s="28"/>
+    </row>
+    <row r="67" spans="1:8" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>222</v>
+      </c>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2336,8 +3526,10 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6"/>
+      <c r="D71" s="43" t="s">
+        <v>223</v>
+      </c>
+      <c r="E71" s="44"/>
       <c r="F71" s="6"/>
       <c r="G71" s="8"/>
       <c r="H71" s="2"/>
@@ -2345,200 +3537,280 @@
     <row r="72" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
-      <c r="C72" s="6"/>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6"/>
-      <c r="F72" s="6"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="16">
+        <v>1</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>224</v>
+      </c>
+      <c r="F72" s="14"/>
       <c r="G72" s="8"/>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="16">
+        <v>2</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="F73" s="14"/>
       <c r="G73" s="8"/>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
-      <c r="C74" s="6"/>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6"/>
-      <c r="F74" s="6"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="16">
+        <v>3</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>226</v>
+      </c>
+      <c r="F74" s="14"/>
       <c r="G74" s="8"/>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="16">
+        <v>4</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="F75" s="14"/>
       <c r="G75" s="8"/>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
-      <c r="C76" s="6"/>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6"/>
-      <c r="F76" s="6"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="16">
+        <v>5</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F76" s="14"/>
       <c r="G76" s="8"/>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
-      <c r="C77" s="6"/>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6"/>
-      <c r="F77" s="6"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="16">
+        <v>6</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="F77" s="14"/>
       <c r="G77" s="8"/>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="16">
+        <v>7</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="F78" s="14"/>
       <c r="G78" s="8"/>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6"/>
-      <c r="F79" s="6"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="16">
+        <v>8</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="F79" s="14"/>
       <c r="G79" s="8"/>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="6"/>
-      <c r="D80" s="6"/>
-      <c r="E80" s="6"/>
-      <c r="F80" s="6"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="16">
+        <v>9</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F80" s="14"/>
       <c r="G80" s="8"/>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="16">
+        <v>10</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F81" s="14"/>
       <c r="G81" s="8"/>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="16">
+        <v>11</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F82" s="14"/>
       <c r="G82" s="8"/>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="16">
+        <v>12</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="F83" s="14"/>
       <c r="G83" s="8"/>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="16">
+        <v>13</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="F84" s="14"/>
       <c r="G84" s="8"/>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="6"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="16">
+        <v>14</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="F85" s="14"/>
       <c r="G85" s="8"/>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="16">
+        <v>15</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>238</v>
+      </c>
+      <c r="F86" s="14"/>
       <c r="G86" s="8"/>
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="16">
+        <v>16</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="F87" s="14"/>
       <c r="G87" s="8"/>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="6"/>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6"/>
-      <c r="F88" s="6"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="16">
+        <v>17</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="F88" s="14"/>
       <c r="G88" s="8"/>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6"/>
-      <c r="F89" s="6"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="16">
+        <v>18</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="F89" s="14"/>
       <c r="G89" s="8"/>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="16">
+        <v>19</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="F90" s="14"/>
       <c r="G90" s="8"/>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="1:8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="6"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="16">
+        <v>20</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="F91" s="14"/>
       <c r="G91" s="8"/>
       <c r="H91" s="2"/>
     </row>
@@ -2546,8 +3818,8 @@
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
       <c r="F92" s="6"/>
       <c r="G92" s="8"/>
       <c r="H92" s="2"/>
@@ -3035,8 +4307,14 @@
   <sortState ref="A2:A140">
     <sortCondition ref="A1"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="D71:E71"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>